--- a/프로그램기능목록_V1.0.xlsx
+++ b/프로그램기능목록_V1.0.xlsx
@@ -1183,7 +1183,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1593,6 +1593,14 @@
       </top>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1773,7 +1781,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="417">
+  <cellXfs count="419">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2989,6 +2997,12 @@
     <xf numFmtId="14" fontId="93" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="93" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="93" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="59">
     <cellStyle name="20% - 강조색1" xfId="35" builtinId="30"/>
@@ -3900,8 +3914,8 @@
   </sheetPr>
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -3910,7 +3924,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="17.78277800" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="18.22722265" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -4831,13 +4845,13 @@
       <c r="M4" s="29"/>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A5" s="384" t="s">
+      <c r="A5" s="417"/>
+      <c r="B5" s="384" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="385" t="s">
+      <c r="C5" s="385" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="385"/>
       <c r="D5" s="386"/>
       <c r="E5" s="386" t="s">
         <v>105</v>
@@ -4860,11 +4874,11 @@
       <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A6" s="391"/>
-      <c r="B6" s="385" t="s">
+      <c r="A6" s="418"/>
+      <c r="B6" s="391"/>
+      <c r="C6" s="385" t="s">
         <v>70</v>
       </c>
-      <c r="C6" s="385"/>
       <c r="D6" s="386"/>
       <c r="E6" s="386" t="s">
         <v>106</v>
@@ -4887,13 +4901,13 @@
       <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A7" s="391" t="s">
+      <c r="A7" s="418"/>
+      <c r="B7" s="391" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="385" t="s">
+      <c r="C7" s="385" t="s">
         <v>72</v>
       </c>
-      <c r="C7" s="385"/>
       <c r="D7" s="386"/>
       <c r="E7" s="386" t="s">
         <v>107</v>
@@ -4916,13 +4930,12 @@
       <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A8" s="384" t="s">
+      <c r="B8" s="384" t="s">
         <v>73</v>
       </c>
-      <c r="B8" s="392" t="s">
+      <c r="C8" s="392" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="385"/>
       <c r="D8" s="386"/>
       <c r="E8" s="386" t="s">
         <v>109</v>
@@ -4945,13 +4958,12 @@
       <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A9" s="391" t="s">
+      <c r="B9" s="391" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="392" t="s">
+      <c r="C9" s="392" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="375"/>
       <c r="D9" s="386"/>
       <c r="E9" s="385" t="s">
         <v>96</v>
@@ -4974,11 +4986,10 @@
       <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="19.500000" customHeight="1">
-      <c r="A10" s="393"/>
-      <c r="B10" s="394" t="s">
+      <c r="B10" s="393"/>
+      <c r="C10" s="394" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="395"/>
       <c r="D10" s="386"/>
       <c r="E10" s="385" t="s">
         <v>97</v>
@@ -5001,11 +5012,10 @@
       <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="A11" s="391"/>
-      <c r="B11" s="386" t="s">
+      <c r="B11" s="391"/>
+      <c r="C11" s="386" t="s">
         <v>78</v>
       </c>
-      <c r="C11" s="395"/>
       <c r="D11" s="386"/>
       <c r="E11" s="385" t="s">
         <v>98</v>
@@ -5028,11 +5038,10 @@
       <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="A12" s="398"/>
-      <c r="B12" s="386" t="s">
+      <c r="B12" s="398"/>
+      <c r="C12" s="386" t="s">
         <v>101</v>
       </c>
-      <c r="C12" s="395"/>
       <c r="D12" s="360"/>
       <c r="E12" s="385" t="s">
         <v>102</v>
@@ -5055,13 +5064,12 @@
       <c r="M12" s="364"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="A13" s="384" t="s">
+      <c r="B13" s="384" t="s">
         <v>82</v>
       </c>
-      <c r="B13" s="386" t="s">
+      <c r="C13" s="386" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="375"/>
       <c r="D13" s="375"/>
       <c r="E13" s="385" t="s">
         <v>103</v>
@@ -5084,11 +5092,10 @@
       <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A14" s="384"/>
-      <c r="B14" s="386" t="s">
+      <c r="B14" s="384"/>
+      <c r="C14" s="386" t="s">
         <v>81</v>
       </c>
-      <c r="C14" s="395"/>
       <c r="D14" s="395"/>
       <c r="E14" s="385" t="s">
         <v>104</v>
@@ -5111,13 +5118,12 @@
       <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A15" s="384" t="s">
+      <c r="B15" s="384" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="386" t="s">
+      <c r="C15" s="386" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="395"/>
       <c r="D15" s="395"/>
       <c r="E15" s="385" t="s">
         <v>110</v>
@@ -5140,11 +5146,10 @@
       <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A16" s="384"/>
-      <c r="B16" s="386" t="s">
+      <c r="B16" s="384"/>
+      <c r="C16" s="386" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="395"/>
       <c r="D16" s="395"/>
       <c r="E16" s="385" t="s">
         <v>111</v>
@@ -5167,11 +5172,10 @@
       <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A17" s="384"/>
-      <c r="B17" s="386" t="s">
+      <c r="B17" s="384"/>
+      <c r="C17" s="386" t="s">
         <v>86</v>
       </c>
-      <c r="C17" s="395"/>
       <c r="D17" s="395"/>
       <c r="E17" s="385" t="s">
         <v>113</v>
@@ -5194,11 +5198,10 @@
       <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A18" s="384"/>
-      <c r="B18" s="386" t="s">
+      <c r="B18" s="384"/>
+      <c r="C18" s="386" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="395"/>
       <c r="D18" s="395"/>
       <c r="E18" s="385" t="s">
         <v>114</v>
@@ -5238,13 +5241,12 @@
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A20" s="385" t="s">
-        <v>35</v>
-      </c>
       <c r="B20" s="385" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="385"/>
+      <c r="C20" s="385" t="s">
+        <v>35</v>
+      </c>
       <c r="D20" s="386" t="s">
         <v>39</v>
       </c>
@@ -5260,12 +5262,8 @@
       <c r="H20" s="386" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="388">
-        <v>42513</v>
-      </c>
-      <c r="J20" s="388">
-        <v>42513</v>
-      </c>
+      <c r="I20" s="388"/>
+      <c r="J20" s="388"/>
       <c r="K20" s="389" t="s">
         <v>64</v>
       </c>
@@ -5275,13 +5273,12 @@
       <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A21" s="391" t="s">
+      <c r="B21" s="391" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="385" t="s">
+      <c r="C21" s="385" t="s">
         <v>122</v>
       </c>
-      <c r="C21" s="385"/>
       <c r="D21" s="386"/>
       <c r="E21" s="386" t="s">
         <v>123</v>
@@ -5304,11 +5301,10 @@
       <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A22" s="391"/>
-      <c r="B22" s="385" t="s">
+      <c r="B22" s="391"/>
+      <c r="C22" s="385" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="385"/>
       <c r="D22" s="386"/>
       <c r="E22" s="386" t="s">
         <v>117</v>
@@ -5331,13 +5327,12 @@
       <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A23" s="329" t="s">
+      <c r="B23" s="329" t="s">
         <v>93</v>
       </c>
-      <c r="B23" s="386" t="s">
+      <c r="C23" s="386" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="386"/>
       <c r="D23" s="386"/>
       <c r="E23" s="386" t="s">
         <v>121</v>
@@ -5360,11 +5355,10 @@
       <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A24" s="331"/>
-      <c r="B24" s="386" t="s">
+      <c r="B24" s="331"/>
+      <c r="C24" s="386" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="386"/>
       <c r="D24" s="386"/>
       <c r="E24" s="386" t="s">
         <v>120</v>
@@ -5551,13 +5545,14 @@
       <c r="E36" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A9:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A23:A24"/>
+  <mergeCells count="7">
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">

--- a/프로그램기능목록_V1.0.xlsx
+++ b/프로그램기능목록_V1.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="Polaris Office Sheet" lastEdited="7" lowestEdited="4" rupBuild="9.103.83.44230"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="610" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="표지" sheetId="101" r:id="rId1"/>
@@ -419,7 +419,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="94">
+  <fonts count="92">
     <font>
       <sz val="11.0"/>
       <name val="돋움"/>
@@ -730,12 +730,6 @@
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
-    </font>
-    <font>
-      <b/>
       <sz val="28.0"/>
       <name val="굴림"/>
       <color rgb="FF000000"/>
@@ -749,12 +743,6 @@
       <sz val="11.0"/>
       <name val="돋움"/>
       <color rgb="FFFFFFFF"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20.0"/>
-      <name val="맑은 고딕"/>
-      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -795,20 +783,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color rgb="FFFF0000"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <scheme val="minor"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
       <i/>
       <sz val="10.0"/>
       <name val="굴림체"/>
@@ -905,62 +879,32 @@
     <font>
       <b/>
       <sz val="11.0"/>
-      <name val="맑은고딕"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
       <name val="굴림체"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="굴림체"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <name val="굴림"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="돋움"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="맑은 고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
       <name val="맑은고딕"/>
-      <color/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.0"/>
-      <name val="맑은 고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="11.0"/>
       <name val="나눔고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <b/>
       <sz val="10.0"/>
       <name val="나눔고딕"/>
-      <color/>
+      <color rgb="FF000000"/>
     </font>
     <font>
       <sz val="10.0"/>
@@ -977,7 +921,48 @@
       <b/>
       <sz val="11.0"/>
       <name val="돋움"/>
-      <color/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="20.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FFFF0000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <name val="맑은 고딕"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="굴림"/>
+      <color rgb="FF000000"/>
+    </font>
+    <font>
+      <sz val="24.0"/>
+      <name val="Times New Roman"/>
+      <color rgb="FF000000"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1183,7 +1168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1353,44 +1338,6 @@
       </bottom>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color rgb="FF000000"/>
@@ -1425,7 +1372,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1434,7 +1380,6 @@
       <bottom style="thick">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1443,7 +1388,6 @@
       <bottom style="thick">
         <color rgb="FFACCCEA"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1452,7 +1396,6 @@
       <bottom style="medium">
         <color theme="4" tint="0.399980"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1467,7 +1410,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1482,7 +1424,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -1497,7 +1438,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1506,7 +1446,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -1517,7 +1456,6 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1528,44 +1466,6 @@
       </right>
       <top/>
       <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1657,7 +1557,7 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" applyAlignment="0" applyFont="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
@@ -1666,34 +1566,34 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="19" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="20" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="21" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="16" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="4" borderId="22" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="5" borderId="23" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="5" borderId="22" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="24" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="25" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="26" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="4" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="20" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="5" borderId="19" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="6" borderId="21" applyAlignment="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="22" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="23" applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="7" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0">
@@ -1781,7 +1681,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="419">
+  <cellXfs count="319">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1911,13 +1811,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1944,10 +1844,10 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1965,12 +1865,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1979,9 +1879,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2013,7 +1910,7 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2058,46 +1955,34 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="63" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="64" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="65" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="60" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="61" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="9" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="9" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2127,137 +2012,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="21" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2268,739 +2027,580 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="64" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="65" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="69" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="69" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="70" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="71" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="72" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="72" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="70" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="74" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="68" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="77" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="74" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="67" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="79" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="80" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="80" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="25" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="74" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="81" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="85" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="82" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="89" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="89" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="86" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="86" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="78" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="2" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="89" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="87" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="89" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="81" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="90" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="30" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="9" fontId="30" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="92" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="92" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="92" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="93" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="93" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="93" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="83" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="83" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="83" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="84" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="84" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="84" fillId="0" borderId="1" xfId="11" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3112,19 +2712,6 @@
           <a:noAutofit/>
         </a:bodyPr>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="2800" kern="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="맑은 고딕"/>
-              <a:ea typeface="맑은 고딕"/>
-            </a:rPr>
-            <a:t/>
-          </a:r>
-        </a:p>
-        <a:p>
           <a:pPr algn="r"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="2000" kern="1200" i="1" b="1">
@@ -3181,8 +2768,7 @@
               <a:latin typeface="맑은 고딕"/>
               <a:ea typeface="맑은 고딕"/>
             </a:rPr>
-            <a:t>
-</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3212,8 +2798,7 @@
               <a:latin typeface="굴림"/>
               <a:ea typeface="굴림"/>
             </a:rPr>
-            <a:t>
-</a:t>
+            <a:t> </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3747,13 +3332,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.500000">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="95" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="97"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" ht="11.250000" customHeight="1">
@@ -3783,29 +3368,29 @@
       <c r="F3" s="2"/>
     </row>
     <row r="4" spans="1:6" ht="20.250000" customHeight="1">
-      <c r="A4" s="109" t="s">
+      <c r="A4" s="104" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="110" t="s">
+      <c r="B4" s="105" t="s">
         <v>66</v>
       </c>
-      <c r="C4" s="110" t="s">
+      <c r="C4" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="111" t="s">
+      <c r="E4" s="106" t="s">
         <v>68</v>
       </c>
       <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" ht="20.250000" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="89"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="88"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="20.250000" customHeight="1">
@@ -3912,10 +3497,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L36"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -3931,8 +3516,7 @@
     <col min="10" max="10" style="40" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11" max="11" style="40" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="12" max="12" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="13" max="14" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="15" max="256" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13" max="256" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="257" max="257" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="258" max="258" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="259" max="259" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -3944,8 +3528,7 @@
     <col min="266" max="266" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="267" max="267" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="268" max="268" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="269" max="270" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="271" max="512" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="269" max="512" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="513" max="513" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="514" max="514" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="515" max="515" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -3957,8 +3540,7 @@
     <col min="522" max="522" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="523" max="523" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="524" max="524" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="525" max="526" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="527" max="768" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="525" max="768" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="769" max="769" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="770" max="770" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="771" max="771" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -3970,8 +3552,7 @@
     <col min="778" max="778" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="779" max="779" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="780" max="780" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="781" max="782" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="783" max="1024" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="781" max="1024" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1025" max="1025" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="1026" max="1026" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="1027" max="1027" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -3983,8 +3564,7 @@
     <col min="1034" max="1034" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1035" max="1035" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="1036" max="1036" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="1037" max="1038" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="1039" max="1280" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1037" max="1280" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1281" max="1281" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="1282" max="1282" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="1283" max="1283" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -3996,8 +3576,7 @@
     <col min="1290" max="1290" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1291" max="1291" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="1292" max="1292" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="1293" max="1294" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="1295" max="1536" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1293" max="1536" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1537" max="1537" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="1538" max="1538" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="1539" max="1539" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4009,8 +3588,7 @@
     <col min="1546" max="1546" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1547" max="1547" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="1548" max="1548" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="1549" max="1550" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="1551" max="1792" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1549" max="1792" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1793" max="1793" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="1794" max="1794" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="1795" max="1795" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4022,8 +3600,7 @@
     <col min="1802" max="1802" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="1803" max="1803" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="1804" max="1804" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="1805" max="1806" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="1807" max="2048" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="1805" max="2048" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2049" max="2049" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="2050" max="2050" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="2051" max="2051" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4035,8 +3612,7 @@
     <col min="2058" max="2058" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2059" max="2059" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="2060" max="2060" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="2061" max="2062" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="2063" max="2304" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2061" max="2304" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2305" max="2305" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="2306" max="2306" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="2307" max="2307" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4048,8 +3624,7 @@
     <col min="2314" max="2314" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2315" max="2315" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="2316" max="2316" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="2317" max="2318" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="2319" max="2560" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2317" max="2560" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2561" max="2561" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="2562" max="2562" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="2563" max="2563" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4061,8 +3636,7 @@
     <col min="2570" max="2570" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2571" max="2571" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="2572" max="2572" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="2573" max="2574" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="2575" max="2816" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2573" max="2816" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2817" max="2817" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="2818" max="2818" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="2819" max="2819" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4074,8 +3648,7 @@
     <col min="2826" max="2826" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="2827" max="2827" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="2828" max="2828" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="2829" max="2830" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="2831" max="3072" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="2829" max="3072" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3073" max="3073" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="3074" max="3074" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3075" max="3075" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4087,8 +3660,7 @@
     <col min="3082" max="3082" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3083" max="3083" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="3084" max="3084" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="3085" max="3086" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="3087" max="3328" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3085" max="3328" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3329" max="3329" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="3330" max="3330" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3331" max="3331" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4100,8 +3672,7 @@
     <col min="3338" max="3338" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3339" max="3339" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="3340" max="3340" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="3341" max="3342" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="3343" max="3584" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3341" max="3584" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3585" max="3585" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="3586" max="3586" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3587" max="3587" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4113,8 +3684,7 @@
     <col min="3594" max="3594" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3595" max="3595" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="3596" max="3596" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="3597" max="3598" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="3599" max="3840" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3597" max="3840" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3841" max="3841" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="3842" max="3842" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3843" max="3843" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4126,8 +3696,7 @@
     <col min="3850" max="3850" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="3851" max="3851" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="3852" max="3852" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="3853" max="3854" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="3855" max="4096" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="3853" max="4096" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4097" max="4097" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="4098" max="4098" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="4099" max="4099" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4139,8 +3708,7 @@
     <col min="4106" max="4106" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4107" max="4107" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="4108" max="4108" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="4109" max="4110" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="4111" max="4352" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4109" max="4352" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4353" max="4353" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="4354" max="4354" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="4355" max="4355" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4152,8 +3720,7 @@
     <col min="4362" max="4362" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4363" max="4363" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="4364" max="4364" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="4365" max="4366" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="4367" max="4608" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4365" max="4608" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4609" max="4609" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="4610" max="4610" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="4611" max="4611" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4165,8 +3732,7 @@
     <col min="4618" max="4618" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4619" max="4619" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="4620" max="4620" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="4621" max="4622" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="4623" max="4864" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4621" max="4864" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4865" max="4865" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="4866" max="4866" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="4867" max="4867" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4178,8 +3744,7 @@
     <col min="4874" max="4874" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4875" max="4875" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="4876" max="4876" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="4877" max="4878" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="4879" max="5120" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="4877" max="5120" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5121" max="5121" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="5122" max="5122" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="5123" max="5123" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4191,8 +3756,7 @@
     <col min="5130" max="5130" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5131" max="5131" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="5132" max="5132" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="5133" max="5134" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="5135" max="5376" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5133" max="5376" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5377" max="5377" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="5378" max="5378" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="5379" max="5379" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4204,8 +3768,7 @@
     <col min="5386" max="5386" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5387" max="5387" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="5388" max="5388" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="5389" max="5390" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="5391" max="5632" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5389" max="5632" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5633" max="5633" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="5634" max="5634" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="5635" max="5635" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4217,8 +3780,7 @@
     <col min="5642" max="5642" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5643" max="5643" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="5644" max="5644" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="5645" max="5646" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="5647" max="5888" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5645" max="5888" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5889" max="5889" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="5890" max="5890" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="5891" max="5891" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4230,8 +3792,7 @@
     <col min="5898" max="5898" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="5899" max="5899" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="5900" max="5900" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="5901" max="5902" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="5903" max="6144" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="5901" max="6144" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6145" max="6145" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="6146" max="6146" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="6147" max="6147" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4243,8 +3804,7 @@
     <col min="6154" max="6154" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6155" max="6155" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="6156" max="6156" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="6157" max="6158" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="6159" max="6400" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6157" max="6400" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6401" max="6401" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="6402" max="6402" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="6403" max="6403" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4256,8 +3816,7 @@
     <col min="6410" max="6410" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6411" max="6411" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="6412" max="6412" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="6413" max="6414" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="6415" max="6656" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6413" max="6656" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6657" max="6657" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="6658" max="6658" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="6659" max="6659" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4269,8 +3828,7 @@
     <col min="6666" max="6666" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6667" max="6667" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="6668" max="6668" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="6669" max="6670" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="6671" max="6912" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6669" max="6912" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6913" max="6913" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="6914" max="6914" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="6915" max="6915" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4282,8 +3840,7 @@
     <col min="6922" max="6922" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="6923" max="6923" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="6924" max="6924" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="6925" max="6926" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="6927" max="7168" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="6925" max="7168" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7169" max="7169" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="7170" max="7170" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="7171" max="7171" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4295,8 +3852,7 @@
     <col min="7178" max="7178" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7179" max="7179" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="7180" max="7180" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="7181" max="7182" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="7183" max="7424" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7181" max="7424" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7425" max="7425" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="7426" max="7426" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="7427" max="7427" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4308,8 +3864,7 @@
     <col min="7434" max="7434" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7435" max="7435" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="7436" max="7436" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="7437" max="7438" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="7439" max="7680" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7437" max="7680" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7681" max="7681" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="7682" max="7682" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="7683" max="7683" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4321,8 +3876,7 @@
     <col min="7690" max="7690" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7691" max="7691" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="7692" max="7692" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="7693" max="7694" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="7695" max="7936" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7693" max="7936" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7937" max="7937" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="7938" max="7938" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="7939" max="7939" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4334,8 +3888,7 @@
     <col min="7946" max="7946" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="7947" max="7947" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="7948" max="7948" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="7949" max="7950" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="7951" max="8192" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="7949" max="8192" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8193" max="8193" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8194" max="8194" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="8195" max="8195" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4347,8 +3900,7 @@
     <col min="8202" max="8202" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8203" max="8203" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="8204" max="8204" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="8205" max="8206" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="8207" max="8448" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8205" max="8448" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8449" max="8449" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8450" max="8450" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="8451" max="8451" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4360,8 +3912,7 @@
     <col min="8458" max="8458" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8459" max="8459" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="8460" max="8460" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="8461" max="8462" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="8463" max="8704" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8461" max="8704" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8705" max="8705" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8706" max="8706" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="8707" max="8707" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4373,8 +3924,7 @@
     <col min="8714" max="8714" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8715" max="8715" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="8716" max="8716" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="8717" max="8718" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="8719" max="8960" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8717" max="8960" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8961" max="8961" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8962" max="8962" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="8963" max="8963" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4386,8 +3936,7 @@
     <col min="8970" max="8970" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="8971" max="8971" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="8972" max="8972" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="8973" max="8974" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="8975" max="9216" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="8973" max="9216" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9217" max="9217" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="9218" max="9218" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="9219" max="9219" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4399,8 +3948,7 @@
     <col min="9226" max="9226" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9227" max="9227" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="9228" max="9228" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="9229" max="9230" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="9231" max="9472" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9229" max="9472" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9473" max="9473" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="9474" max="9474" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="9475" max="9475" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4412,8 +3960,7 @@
     <col min="9482" max="9482" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9483" max="9483" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="9484" max="9484" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="9485" max="9486" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="9487" max="9728" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9485" max="9728" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9729" max="9729" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="9730" max="9730" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="9731" max="9731" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4425,8 +3972,7 @@
     <col min="9738" max="9738" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9739" max="9739" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="9740" max="9740" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="9741" max="9742" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="9743" max="9984" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9741" max="9984" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9985" max="9985" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="9986" max="9986" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="9987" max="9987" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4438,8 +3984,7 @@
     <col min="9994" max="9994" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="9995" max="9995" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="9996" max="9996" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="9997" max="9998" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="9999" max="10240" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="9997" max="10240" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10241" max="10241" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="10242" max="10242" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="10243" max="10243" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4451,8 +3996,7 @@
     <col min="10250" max="10250" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10251" max="10251" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="10252" max="10252" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="10253" max="10254" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="10255" max="10496" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10253" max="10496" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10497" max="10497" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="10498" max="10498" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="10499" max="10499" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4464,8 +4008,7 @@
     <col min="10506" max="10506" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10507" max="10507" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="10508" max="10508" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="10509" max="10510" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="10511" max="10752" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10509" max="10752" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10753" max="10753" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="10754" max="10754" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="10755" max="10755" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4477,8 +4020,7 @@
     <col min="10762" max="10762" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="10763" max="10763" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="10764" max="10764" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="10765" max="10766" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="10767" max="11008" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="10765" max="11008" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11009" max="11009" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="11010" max="11010" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="11011" max="11011" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4490,8 +4032,7 @@
     <col min="11018" max="11018" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11019" max="11019" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="11020" max="11020" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="11021" max="11022" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="11023" max="11264" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11021" max="11264" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11265" max="11265" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="11266" max="11266" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="11267" max="11267" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4503,8 +4044,7 @@
     <col min="11274" max="11274" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11275" max="11275" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="11276" max="11276" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="11277" max="11278" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="11279" max="11520" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11277" max="11520" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11521" max="11521" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="11522" max="11522" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="11523" max="11523" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4516,8 +4056,7 @@
     <col min="11530" max="11530" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11531" max="11531" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="11532" max="11532" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="11533" max="11534" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="11535" max="11776" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11533" max="11776" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11777" max="11777" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="11778" max="11778" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="11779" max="11779" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4529,8 +4068,7 @@
     <col min="11786" max="11786" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="11787" max="11787" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="11788" max="11788" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="11789" max="11790" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="11791" max="12032" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="11789" max="12032" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12033" max="12033" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="12034" max="12034" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="12035" max="12035" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4542,8 +4080,7 @@
     <col min="12042" max="12042" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12043" max="12043" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="12044" max="12044" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="12045" max="12046" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="12047" max="12288" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12045" max="12288" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12289" max="12289" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="12290" max="12290" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="12291" max="12291" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4555,8 +4092,7 @@
     <col min="12298" max="12298" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12299" max="12299" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="12300" max="12300" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="12301" max="12302" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="12303" max="12544" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12301" max="12544" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12545" max="12545" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="12546" max="12546" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="12547" max="12547" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4568,8 +4104,7 @@
     <col min="12554" max="12554" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12555" max="12555" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="12556" max="12556" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="12557" max="12558" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="12559" max="12800" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12557" max="12800" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12801" max="12801" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="12802" max="12802" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="12803" max="12803" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4581,8 +4116,7 @@
     <col min="12810" max="12810" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="12811" max="12811" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="12812" max="12812" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="12813" max="12814" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="12815" max="13056" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="12813" max="13056" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13057" max="13057" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="13058" max="13058" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="13059" max="13059" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4594,8 +4128,7 @@
     <col min="13066" max="13066" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13067" max="13067" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="13068" max="13068" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="13069" max="13070" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="13071" max="13312" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13069" max="13312" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13313" max="13313" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="13314" max="13314" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="13315" max="13315" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4607,8 +4140,7 @@
     <col min="13322" max="13322" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13323" max="13323" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="13324" max="13324" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="13325" max="13326" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="13327" max="13568" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13325" max="13568" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13569" max="13569" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="13570" max="13570" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="13571" max="13571" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4620,8 +4152,7 @@
     <col min="13578" max="13578" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13579" max="13579" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="13580" max="13580" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="13581" max="13582" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="13583" max="13824" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13581" max="13824" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13825" max="13825" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="13826" max="13826" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="13827" max="13827" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4633,8 +4164,7 @@
     <col min="13834" max="13834" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="13835" max="13835" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="13836" max="13836" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="13837" max="13838" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="13839" max="14080" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="13837" max="14080" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14081" max="14081" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="14082" max="14082" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="14083" max="14083" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4646,8 +4176,7 @@
     <col min="14090" max="14090" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14091" max="14091" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="14092" max="14092" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="14093" max="14094" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="14095" max="14336" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14093" max="14336" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14337" max="14337" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="14338" max="14338" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="14339" max="14339" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4659,8 +4188,7 @@
     <col min="14346" max="14346" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14347" max="14347" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="14348" max="14348" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="14349" max="14350" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="14351" max="14592" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14349" max="14592" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14593" max="14593" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="14594" max="14594" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="14595" max="14595" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4672,8 +4200,7 @@
     <col min="14602" max="14602" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14603" max="14603" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="14604" max="14604" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="14605" max="14606" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="14607" max="14848" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14605" max="14848" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14849" max="14849" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="14850" max="14850" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="14851" max="14851" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4685,8 +4212,7 @@
     <col min="14858" max="14858" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="14859" max="14859" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="14860" max="14860" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="14861" max="14862" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="14863" max="15104" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="14861" max="15104" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15105" max="15105" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="15106" max="15106" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="15107" max="15107" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4698,8 +4224,7 @@
     <col min="15114" max="15114" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15115" max="15115" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="15116" max="15116" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="15117" max="15118" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="15119" max="15360" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15117" max="15360" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15361" max="15361" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="15362" max="15362" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="15363" max="15363" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4711,8 +4236,7 @@
     <col min="15370" max="15370" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15371" max="15371" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="15372" max="15372" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="15373" max="15374" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="15375" max="15616" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15373" max="15616" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15617" max="15617" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="15618" max="15618" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="15619" max="15619" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4724,8 +4248,7 @@
     <col min="15626" max="15626" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15627" max="15627" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="15628" max="15628" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="15629" max="15630" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="15631" max="15872" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15629" max="15872" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15873" max="15873" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="15874" max="15874" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="15875" max="15875" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4737,8 +4260,7 @@
     <col min="15882" max="15882" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="15883" max="15883" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="15884" max="15884" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="15885" max="15886" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="15887" max="16128" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="15885" max="16128" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
     <col min="16129" max="16129" style="37" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="16130" max="16130" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="16131" max="16131" style="37" width="17.89388869" customWidth="1" outlineLevel="0"/>
@@ -4750,799 +4272,728 @@
     <col min="16138" max="16138" style="37" width="10.89388869" customWidth="1" outlineLevel="0"/>
     <col min="16139" max="16139" style="37" width="9.67166636" customWidth="1" outlineLevel="0"/>
     <col min="16140" max="16140" style="37" width="7.11611101" customWidth="1" outlineLevel="0"/>
-    <col min="16141" max="16142" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
-    <col min="16143" max="16384" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
+    <col min="16141" max="16384" style="37" width="8.89388869" customWidth="1" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" ht="21.750000" customHeight="1">
-      <c r="A1" s="369" t="s">
+      <c r="A1" s="293" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="370"/>
-      <c r="C1" s="371"/>
-      <c r="D1" s="372"/>
-      <c r="E1" s="373"/>
-      <c r="F1" s="374"/>
-      <c r="G1" s="374"/>
-      <c r="H1" s="374"/>
-      <c r="I1" s="374"/>
-      <c r="J1" s="374"/>
-      <c r="K1" s="374"/>
-      <c r="L1" s="375"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="269"/>
+      <c r="C1" s="294"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="296"/>
+      <c r="F1" s="297"/>
+      <c r="G1" s="297"/>
+      <c r="H1" s="297"/>
+      <c r="I1" s="297"/>
+      <c r="J1" s="297"/>
+      <c r="K1" s="297"/>
+      <c r="L1" s="270"/>
     </row>
     <row r="2" spans="1:13" s="29" customFormat="1" ht="13.500000">
-      <c r="A2" s="371"/>
-      <c r="B2" s="376"/>
-      <c r="C2" s="371"/>
-      <c r="D2" s="372"/>
-      <c r="E2" s="373"/>
-      <c r="F2" s="375"/>
-      <c r="G2" s="375"/>
-      <c r="H2" s="375"/>
-      <c r="I2" s="371"/>
-      <c r="J2" s="371" t="s">
+      <c r="A2" s="294"/>
+      <c r="B2" s="298"/>
+      <c r="C2" s="294"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="296"/>
+      <c r="F2" s="270"/>
+      <c r="G2" s="270"/>
+      <c r="H2" s="270"/>
+      <c r="I2" s="294"/>
+      <c r="J2" s="294" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="374"/>
-      <c r="L2" s="375"/>
-      <c r="M2" s="29"/>
+      <c r="K2" s="297"/>
+      <c r="L2" s="270"/>
     </row>
     <row r="3" spans="1:13" s="29" customFormat="1" ht="27.000000">
-      <c r="A3" s="377" t="s">
+      <c r="A3" s="299" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="377" t="s">
+      <c r="B3" s="299" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="377" t="s">
+      <c r="C3" s="299" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="378" t="s">
+      <c r="D3" s="300" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="377" t="s">
+      <c r="E3" s="299" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="377" t="s">
+      <c r="F3" s="299" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="377" t="s">
+      <c r="G3" s="299" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="377" t="s">
+      <c r="H3" s="299" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="377" t="s">
+      <c r="I3" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="377" t="s">
+      <c r="J3" s="299" t="s">
         <v>17</v>
       </c>
-      <c r="K3" s="379" t="s">
+      <c r="K3" s="301" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="378" t="s">
+      <c r="L3" s="300" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="29"/>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A4" s="380" t="s">
+      <c r="A4" s="302" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="380"/>
-      <c r="C4" s="380"/>
-      <c r="D4" s="381"/>
-      <c r="E4" s="380"/>
-      <c r="F4" s="380"/>
-      <c r="G4" s="380"/>
-      <c r="H4" s="380"/>
-      <c r="I4" s="380"/>
-      <c r="J4" s="380"/>
-      <c r="K4" s="382"/>
-      <c r="L4" s="383"/>
-      <c r="M4" s="29"/>
+      <c r="B4" s="302"/>
+      <c r="C4" s="302"/>
+      <c r="D4" s="303"/>
+      <c r="E4" s="302"/>
+      <c r="F4" s="302"/>
+      <c r="G4" s="302"/>
+      <c r="H4" s="302"/>
+      <c r="I4" s="302"/>
+      <c r="J4" s="302"/>
+      <c r="K4" s="304"/>
+      <c r="L4" s="300"/>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A5" s="417"/>
-      <c r="B5" s="384" t="s">
+      <c r="A5" s="317"/>
+      <c r="B5" s="258" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="385" t="s">
+      <c r="C5" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="386"/>
-      <c r="E5" s="386" t="s">
+      <c r="D5" s="260"/>
+      <c r="E5" s="260" t="s">
         <v>105</v>
       </c>
-      <c r="F5" s="387" t="s">
+      <c r="F5" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="387" t="s">
+      <c r="G5" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="386"/>
-      <c r="I5" s="388"/>
-      <c r="J5" s="388"/>
-      <c r="K5" s="389" t="s">
+      <c r="H5" s="260"/>
+      <c r="I5" s="262"/>
+      <c r="J5" s="262"/>
+      <c r="K5" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L5" s="390" t="s">
+      <c r="L5" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A6" s="418"/>
-      <c r="B6" s="391"/>
-      <c r="C6" s="385" t="s">
+      <c r="A6" s="318"/>
+      <c r="B6" s="265"/>
+      <c r="C6" s="259" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="386"/>
-      <c r="E6" s="386" t="s">
+      <c r="D6" s="260"/>
+      <c r="E6" s="260" t="s">
         <v>106</v>
       </c>
-      <c r="F6" s="387" t="s">
+      <c r="F6" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="387" t="s">
+      <c r="G6" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="386"/>
-      <c r="I6" s="389"/>
-      <c r="J6" s="389"/>
-      <c r="K6" s="389" t="s">
+      <c r="H6" s="260"/>
+      <c r="I6" s="263"/>
+      <c r="J6" s="263"/>
+      <c r="K6" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L6" s="390" t="s">
+      <c r="L6" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M6" s="29"/>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A7" s="418"/>
-      <c r="B7" s="391" t="s">
+      <c r="A7" s="318"/>
+      <c r="B7" s="265" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="385" t="s">
+      <c r="C7" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="386"/>
-      <c r="E7" s="386" t="s">
+      <c r="D7" s="260"/>
+      <c r="E7" s="260" t="s">
         <v>107</v>
       </c>
-      <c r="F7" s="387" t="s">
+      <c r="F7" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="G7" s="387" t="s">
+      <c r="G7" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="386"/>
-      <c r="I7" s="389"/>
-      <c r="J7" s="389"/>
-      <c r="K7" s="389" t="s">
+      <c r="H7" s="260"/>
+      <c r="I7" s="263"/>
+      <c r="J7" s="263"/>
+      <c r="K7" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L7" s="390" t="s">
+      <c r="L7" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M7" s="29"/>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="B8" s="384" t="s">
+      <c r="B8" s="258" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="392" t="s">
+      <c r="C8" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="386"/>
-      <c r="E8" s="386" t="s">
+      <c r="D8" s="260"/>
+      <c r="E8" s="260" t="s">
         <v>109</v>
       </c>
-      <c r="F8" s="387" t="s">
+      <c r="F8" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="387" t="s">
+      <c r="G8" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="386"/>
-      <c r="I8" s="388"/>
-      <c r="J8" s="388"/>
-      <c r="K8" s="389" t="s">
+      <c r="H8" s="260"/>
+      <c r="I8" s="262"/>
+      <c r="J8" s="262"/>
+      <c r="K8" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L8" s="390" t="s">
+      <c r="L8" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M8" s="29"/>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="B9" s="391" t="s">
+      <c r="B9" s="265" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="392" t="s">
+      <c r="C9" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="386"/>
-      <c r="E9" s="385" t="s">
+      <c r="D9" s="260"/>
+      <c r="E9" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="387" t="s">
+      <c r="F9" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="387" t="s">
+      <c r="G9" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="386"/>
-      <c r="I9" s="389"/>
-      <c r="J9" s="389"/>
-      <c r="K9" s="389" t="s">
+      <c r="H9" s="260"/>
+      <c r="I9" s="263"/>
+      <c r="J9" s="263"/>
+      <c r="K9" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L9" s="390" t="s">
+      <c r="L9" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M9" s="29"/>
     </row>
     <row r="10" spans="1:13" ht="19.500000" customHeight="1">
-      <c r="B10" s="393"/>
-      <c r="C10" s="394" t="s">
+      <c r="B10" s="305"/>
+      <c r="C10" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="386"/>
-      <c r="E10" s="385" t="s">
+      <c r="D10" s="260"/>
+      <c r="E10" s="259" t="s">
         <v>97</v>
       </c>
-      <c r="F10" s="387" t="s">
+      <c r="F10" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="387" t="s">
+      <c r="G10" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="386"/>
-      <c r="I10" s="396"/>
-      <c r="J10" s="396"/>
-      <c r="K10" s="389" t="s">
+      <c r="H10" s="260"/>
+      <c r="I10" s="268"/>
+      <c r="J10" s="268"/>
+      <c r="K10" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L10" s="390" t="s">
+      <c r="L10" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M10" s="37"/>
     </row>
     <row r="11" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="B11" s="391"/>
-      <c r="C11" s="386" t="s">
+      <c r="B11" s="265"/>
+      <c r="C11" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="386"/>
-      <c r="E11" s="385" t="s">
+      <c r="D11" s="260"/>
+      <c r="E11" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="387" t="s">
+      <c r="F11" s="261" t="s">
         <v>126</v>
       </c>
-      <c r="G11" s="387" t="s">
+      <c r="G11" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="386"/>
-      <c r="I11" s="396"/>
-      <c r="J11" s="396"/>
-      <c r="K11" s="389" t="s">
+      <c r="H11" s="260"/>
+      <c r="I11" s="268"/>
+      <c r="J11" s="268"/>
+      <c r="K11" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="390" t="s">
+      <c r="L11" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M11" s="37"/>
     </row>
     <row r="12" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="B12" s="398"/>
-      <c r="C12" s="386" t="s">
+      <c r="B12" s="306"/>
+      <c r="C12" s="260" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="360"/>
-      <c r="E12" s="385" t="s">
+      <c r="D12" s="284"/>
+      <c r="E12" s="259" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="361" t="s">
+      <c r="F12" s="285" t="s">
         <v>61</v>
       </c>
-      <c r="G12" s="387" t="s">
+      <c r="G12" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="360"/>
-      <c r="I12" s="362"/>
-      <c r="J12" s="362"/>
-      <c r="K12" s="389" t="s">
+      <c r="H12" s="284"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L12" s="390" t="s">
+      <c r="L12" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M12" s="364"/>
+      <c r="M12" s="288"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="B13" s="384" t="s">
+      <c r="B13" s="258" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="386" t="s">
+      <c r="C13" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="375"/>
-      <c r="E13" s="385" t="s">
+      <c r="D13" s="270"/>
+      <c r="E13" s="259" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="387" t="s">
+      <c r="F13" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G13" s="387" t="s">
+      <c r="G13" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="375"/>
-      <c r="I13" s="375"/>
-      <c r="J13" s="375"/>
-      <c r="K13" s="389" t="s">
+      <c r="H13" s="270"/>
+      <c r="I13" s="270"/>
+      <c r="J13" s="270"/>
+      <c r="K13" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L13" s="390" t="s">
+      <c r="L13" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B14" s="384"/>
-      <c r="C14" s="386" t="s">
+      <c r="B14" s="258"/>
+      <c r="C14" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="395"/>
-      <c r="E14" s="385" t="s">
+      <c r="D14" s="272"/>
+      <c r="E14" s="259" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="387" t="s">
+      <c r="F14" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G14" s="387" t="s">
+      <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="399"/>
-      <c r="I14" s="399"/>
-      <c r="J14" s="399"/>
-      <c r="K14" s="389" t="s">
+      <c r="H14" s="274"/>
+      <c r="I14" s="274"/>
+      <c r="J14" s="274"/>
+      <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L14" s="390" t="s">
+      <c r="L14" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M14" s="37"/>
     </row>
     <row r="15" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B15" s="384" t="s">
+      <c r="B15" s="258" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="386" t="s">
+      <c r="C15" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="395"/>
-      <c r="E15" s="385" t="s">
+      <c r="D15" s="272"/>
+      <c r="E15" s="259" t="s">
         <v>110</v>
       </c>
-      <c r="F15" s="387" t="s">
+      <c r="F15" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="G15" s="387" t="s">
+      <c r="G15" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="399"/>
-      <c r="I15" s="399"/>
-      <c r="J15" s="399"/>
-      <c r="K15" s="389" t="s">
+      <c r="H15" s="274"/>
+      <c r="I15" s="274"/>
+      <c r="J15" s="274"/>
+      <c r="K15" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L15" s="390" t="s">
+      <c r="L15" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M15" s="37"/>
     </row>
     <row r="16" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B16" s="384"/>
-      <c r="C16" s="386" t="s">
+      <c r="B16" s="258"/>
+      <c r="C16" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="395"/>
-      <c r="E16" s="385" t="s">
+      <c r="D16" s="272"/>
+      <c r="E16" s="259" t="s">
         <v>111</v>
       </c>
-      <c r="F16" s="387" t="s">
+      <c r="F16" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="387" t="s">
+      <c r="G16" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="399"/>
-      <c r="I16" s="399"/>
-      <c r="J16" s="399"/>
-      <c r="K16" s="389" t="s">
+      <c r="H16" s="274"/>
+      <c r="I16" s="274"/>
+      <c r="J16" s="274"/>
+      <c r="K16" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L16" s="390" t="s">
+      <c r="L16" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M16" s="37"/>
     </row>
     <row r="17" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B17" s="384"/>
-      <c r="C17" s="386" t="s">
+      <c r="B17" s="258"/>
+      <c r="C17" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="395"/>
-      <c r="E17" s="385" t="s">
+      <c r="D17" s="272"/>
+      <c r="E17" s="259" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="387" t="s">
+      <c r="F17" s="261" t="s">
         <v>61</v>
       </c>
-      <c r="G17" s="387" t="s">
+      <c r="G17" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="399"/>
-      <c r="I17" s="399"/>
-      <c r="J17" s="399"/>
-      <c r="K17" s="389" t="s">
+      <c r="H17" s="274"/>
+      <c r="I17" s="274"/>
+      <c r="J17" s="274"/>
+      <c r="K17" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="390" t="s">
+      <c r="L17" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M17" s="37"/>
     </row>
     <row r="18" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B18" s="384"/>
-      <c r="C18" s="386" t="s">
+      <c r="B18" s="258"/>
+      <c r="C18" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="395"/>
-      <c r="E18" s="385" t="s">
+      <c r="D18" s="272"/>
+      <c r="E18" s="259" t="s">
         <v>114</v>
       </c>
-      <c r="F18" s="387" t="s">
+      <c r="F18" s="261" t="s">
         <v>125</v>
       </c>
-      <c r="G18" s="387" t="s">
+      <c r="G18" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="399"/>
-      <c r="I18" s="399"/>
-      <c r="J18" s="399"/>
-      <c r="K18" s="389" t="s">
+      <c r="H18" s="274"/>
+      <c r="I18" s="274"/>
+      <c r="J18" s="274"/>
+      <c r="K18" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L18" s="390" t="s">
+      <c r="L18" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M18" s="37"/>
     </row>
     <row r="19" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A19" s="380" t="s">
+      <c r="A19" s="302" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="380"/>
-      <c r="C19" s="380"/>
-      <c r="D19" s="381"/>
-      <c r="E19" s="382"/>
-      <c r="F19" s="380"/>
-      <c r="G19" s="380"/>
-      <c r="H19" s="381"/>
-      <c r="I19" s="380"/>
-      <c r="J19" s="380"/>
-      <c r="K19" s="382"/>
-      <c r="L19" s="383"/>
+      <c r="B19" s="302"/>
+      <c r="C19" s="302"/>
+      <c r="D19" s="303"/>
+      <c r="E19" s="304"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="302"/>
+      <c r="H19" s="303"/>
+      <c r="I19" s="302"/>
+      <c r="J19" s="302"/>
+      <c r="K19" s="304"/>
+      <c r="L19" s="300"/>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B20" s="385" t="s">
+      <c r="B20" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="385" t="s">
+      <c r="C20" s="259" t="s">
         <v>35</v>
       </c>
-      <c r="D20" s="386" t="s">
+      <c r="D20" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="386" t="s">
+      <c r="E20" s="260" t="s">
         <v>45</v>
       </c>
-      <c r="F20" s="387" t="s">
+      <c r="F20" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G20" s="387" t="s">
+      <c r="G20" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H20" s="386" t="s">
+      <c r="H20" s="260" t="s">
         <v>39</v>
       </c>
-      <c r="I20" s="388"/>
-      <c r="J20" s="388"/>
-      <c r="K20" s="389" t="s">
+      <c r="I20" s="262"/>
+      <c r="J20" s="262"/>
+      <c r="K20" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L20" s="390" t="s">
+      <c r="L20" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M20" s="37"/>
     </row>
     <row r="21" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B21" s="391" t="s">
+      <c r="B21" s="265" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="385" t="s">
+      <c r="C21" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="386"/>
-      <c r="E21" s="386" t="s">
+      <c r="D21" s="260"/>
+      <c r="E21" s="260" t="s">
         <v>123</v>
       </c>
-      <c r="F21" s="387" t="s">
+      <c r="F21" s="261" t="s">
         <v>60</v>
       </c>
-      <c r="G21" s="387" t="s">
+      <c r="G21" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="386"/>
-      <c r="I21" s="389"/>
-      <c r="J21" s="389"/>
-      <c r="K21" s="389" t="s">
+      <c r="H21" s="260"/>
+      <c r="I21" s="263"/>
+      <c r="J21" s="263"/>
+      <c r="K21" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L21" s="390" t="s">
+      <c r="L21" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M21" s="37"/>
     </row>
     <row r="22" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B22" s="391"/>
-      <c r="C22" s="385" t="s">
+      <c r="B22" s="265"/>
+      <c r="C22" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="386"/>
-      <c r="E22" s="386" t="s">
+      <c r="D22" s="260"/>
+      <c r="E22" s="260" t="s">
         <v>117</v>
       </c>
-      <c r="F22" s="387" t="s">
+      <c r="F22" s="261" t="s">
         <v>125</v>
       </c>
-      <c r="G22" s="387" t="s">
+      <c r="G22" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="386"/>
-      <c r="I22" s="389"/>
-      <c r="J22" s="389"/>
-      <c r="K22" s="389" t="s">
+      <c r="H22" s="260"/>
+      <c r="I22" s="263"/>
+      <c r="J22" s="263"/>
+      <c r="K22" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L22" s="390" t="s">
+      <c r="L22" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M22" s="37"/>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B23" s="329" t="s">
+      <c r="B23" s="254" t="s">
         <v>93</v>
       </c>
-      <c r="C23" s="386" t="s">
+      <c r="C23" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="386"/>
-      <c r="E23" s="386" t="s">
+      <c r="D23" s="260"/>
+      <c r="E23" s="260" t="s">
         <v>121</v>
       </c>
-      <c r="F23" s="387" t="s">
+      <c r="F23" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G23" s="387" t="s">
+      <c r="G23" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="386"/>
-      <c r="I23" s="396"/>
-      <c r="J23" s="396"/>
-      <c r="K23" s="389" t="s">
+      <c r="H23" s="260"/>
+      <c r="I23" s="268"/>
+      <c r="J23" s="268"/>
+      <c r="K23" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L23" s="390" t="s">
+      <c r="L23" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M23" s="37"/>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B24" s="331"/>
-      <c r="C24" s="386" t="s">
+      <c r="B24" s="256"/>
+      <c r="C24" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="386"/>
-      <c r="E24" s="386" t="s">
+      <c r="D24" s="260"/>
+      <c r="E24" s="260" t="s">
         <v>120</v>
       </c>
-      <c r="F24" s="387" t="s">
+      <c r="F24" s="261" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="387" t="s">
+      <c r="G24" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="386"/>
-      <c r="I24" s="396"/>
-      <c r="J24" s="396"/>
-      <c r="K24" s="389" t="s">
+      <c r="H24" s="260"/>
+      <c r="I24" s="268"/>
+      <c r="J24" s="268"/>
+      <c r="K24" s="263" t="s">
         <v>64</v>
       </c>
-      <c r="L24" s="390" t="s">
+      <c r="L24" s="264" t="s">
         <v>126</v>
       </c>
-      <c r="M24" s="37"/>
     </row>
     <row r="25" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A25" s="385"/>
-      <c r="B25" s="386"/>
-      <c r="C25" s="386"/>
-      <c r="D25" s="386"/>
-      <c r="E25" s="386"/>
-      <c r="F25" s="387"/>
-      <c r="G25" s="389"/>
-      <c r="H25" s="386"/>
-      <c r="I25" s="396"/>
-      <c r="J25" s="396"/>
-      <c r="K25" s="396"/>
-      <c r="L25" s="397"/>
-      <c r="M25" s="37"/>
+      <c r="A25" s="259"/>
+      <c r="B25" s="260"/>
+      <c r="C25" s="260"/>
+      <c r="D25" s="260"/>
+      <c r="E25" s="260"/>
+      <c r="F25" s="261"/>
+      <c r="G25" s="263"/>
+      <c r="H25" s="260"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="268"/>
+      <c r="K25" s="268"/>
+      <c r="L25" s="269"/>
     </row>
     <row r="26" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A26" s="385"/>
-      <c r="B26" s="386"/>
-      <c r="C26" s="386"/>
-      <c r="D26" s="386"/>
-      <c r="E26" s="386"/>
-      <c r="F26" s="389"/>
-      <c r="G26" s="389"/>
-      <c r="H26" s="386"/>
-      <c r="I26" s="396"/>
-      <c r="J26" s="396"/>
-      <c r="K26" s="396"/>
-      <c r="L26" s="397"/>
-      <c r="M26" s="37"/>
+      <c r="A26" s="259"/>
+      <c r="B26" s="260"/>
+      <c r="C26" s="260"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="263"/>
+      <c r="G26" s="263"/>
+      <c r="H26" s="260"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="268"/>
+      <c r="K26" s="268"/>
+      <c r="L26" s="269"/>
     </row>
     <row r="27" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A27" s="385"/>
-      <c r="B27" s="386"/>
-      <c r="C27" s="386"/>
-      <c r="D27" s="386"/>
-      <c r="E27" s="386"/>
-      <c r="F27" s="389"/>
-      <c r="G27" s="389"/>
-      <c r="H27" s="386"/>
-      <c r="I27" s="396"/>
-      <c r="J27" s="396"/>
-      <c r="K27" s="396"/>
-      <c r="L27" s="397"/>
-      <c r="M27" s="37"/>
+      <c r="A27" s="259"/>
+      <c r="B27" s="260"/>
+      <c r="C27" s="260"/>
+      <c r="D27" s="260"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="263"/>
+      <c r="G27" s="263"/>
+      <c r="H27" s="260"/>
+      <c r="I27" s="268"/>
+      <c r="J27" s="268"/>
+      <c r="K27" s="268"/>
+      <c r="L27" s="269"/>
     </row>
     <row r="28" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A28" s="385"/>
-      <c r="B28" s="386"/>
-      <c r="C28" s="386"/>
-      <c r="D28" s="386"/>
-      <c r="E28" s="386"/>
-      <c r="F28" s="389"/>
-      <c r="G28" s="389"/>
-      <c r="H28" s="386"/>
-      <c r="I28" s="396"/>
-      <c r="J28" s="396"/>
-      <c r="K28" s="396"/>
-      <c r="L28" s="397"/>
-      <c r="M28" s="37"/>
+      <c r="A28" s="259"/>
+      <c r="B28" s="260"/>
+      <c r="C28" s="260"/>
+      <c r="D28" s="260"/>
+      <c r="E28" s="260"/>
+      <c r="F28" s="263"/>
+      <c r="G28" s="263"/>
+      <c r="H28" s="260"/>
+      <c r="I28" s="268"/>
+      <c r="J28" s="268"/>
+      <c r="K28" s="268"/>
+      <c r="L28" s="269"/>
     </row>
     <row r="29" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A29" s="385"/>
-      <c r="B29" s="386"/>
-      <c r="C29" s="386"/>
-      <c r="D29" s="386"/>
-      <c r="E29" s="386"/>
-      <c r="F29" s="389"/>
-      <c r="G29" s="389"/>
-      <c r="H29" s="386"/>
-      <c r="I29" s="396"/>
-      <c r="J29" s="396"/>
-      <c r="K29" s="396"/>
-      <c r="L29" s="397"/>
-      <c r="M29" s="37"/>
+      <c r="A29" s="259"/>
+      <c r="B29" s="260"/>
+      <c r="C29" s="260"/>
+      <c r="D29" s="260"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="263"/>
+      <c r="G29" s="263"/>
+      <c r="H29" s="260"/>
+      <c r="I29" s="268"/>
+      <c r="J29" s="268"/>
+      <c r="K29" s="268"/>
+      <c r="L29" s="269"/>
     </row>
     <row r="30" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A30" s="385"/>
-      <c r="B30" s="386"/>
-      <c r="C30" s="386"/>
-      <c r="D30" s="386"/>
-      <c r="E30" s="386"/>
-      <c r="F30" s="389"/>
-      <c r="G30" s="389"/>
-      <c r="H30" s="386"/>
-      <c r="I30" s="396"/>
-      <c r="J30" s="396"/>
-      <c r="K30" s="396"/>
-      <c r="L30" s="397"/>
-      <c r="M30" s="37"/>
+      <c r="A30" s="259"/>
+      <c r="B30" s="260"/>
+      <c r="C30" s="260"/>
+      <c r="D30" s="260"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="263"/>
+      <c r="G30" s="263"/>
+      <c r="H30" s="260"/>
+      <c r="I30" s="268"/>
+      <c r="J30" s="268"/>
+      <c r="K30" s="268"/>
+      <c r="L30" s="269"/>
     </row>
     <row r="31" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A31" s="402"/>
-      <c r="B31" s="403"/>
-      <c r="C31" s="403"/>
-      <c r="D31" s="403"/>
-      <c r="E31" s="403"/>
-      <c r="F31" s="404"/>
-      <c r="G31" s="404"/>
-      <c r="H31" s="403"/>
-      <c r="I31" s="405"/>
-      <c r="J31" s="405"/>
-      <c r="K31" s="405"/>
-      <c r="L31" s="406"/>
+      <c r="A31" s="250"/>
+      <c r="B31" s="251"/>
+      <c r="C31" s="251"/>
+      <c r="D31" s="251"/>
+      <c r="E31" s="251"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="251"/>
+      <c r="I31" s="253"/>
+      <c r="J31" s="253"/>
+      <c r="K31" s="253"/>
+      <c r="L31" s="161"/>
     </row>
     <row r="32" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A32" s="325"/>
-      <c r="B32" s="326"/>
-      <c r="C32" s="326"/>
-      <c r="D32" s="326"/>
-      <c r="E32" s="326"/>
-      <c r="F32" s="327"/>
-      <c r="G32" s="327"/>
-      <c r="H32" s="326"/>
-      <c r="I32" s="328"/>
-      <c r="J32" s="328"/>
-      <c r="K32" s="328"/>
-      <c r="L32" s="298"/>
-    </row>
-    <row r="33" spans="1:12" ht="18.000000" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
-      <c r="C33" s="38"/>
+      <c r="A32" s="250"/>
+      <c r="B32" s="251"/>
+      <c r="C32" s="251"/>
+      <c r="D32" s="251"/>
+      <c r="E32" s="251"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="251"/>
+      <c r="I32" s="253"/>
+      <c r="J32" s="253"/>
+      <c r="K32" s="253"/>
+      <c r="L32" s="161"/>
+    </row>
+    <row r="33" spans="4:5" ht="18.000000" customHeight="1">
       <c r="D33" s="37"/>
       <c r="E33" s="37"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
-      <c r="L33" s="37"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34" s="37"/>
-      <c r="B34" s="37"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
-      <c r="L34" s="37"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="39"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
-      <c r="L35" s="37"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="D36" s="38"/>
-      <c r="E36" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5751,35 +5202,35 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="414">
+      <c r="A4" s="314">
         <f ca="1">TODAY()</f>
-        <v>44470</v>
-      </c>
-      <c r="B4" s="415">
+        <v>44477</v>
+      </c>
+      <c r="B4" s="315">
         <f>C4+D4+E4</f>
         <v>19</v>
       </c>
-      <c r="C4" s="415">
+      <c r="C4" s="315">
         <f>COUNTIF(목록!K4:K34,"완료")</f>
         <v>0</v>
       </c>
-      <c r="D4" s="415">
+      <c r="D4" s="315">
         <f>COUNTIF(목록!K4:K34,"진행중")</f>
         <v>0</v>
       </c>
-      <c r="E4" s="415">
+      <c r="E4" s="315">
         <f>COUNTIF(목록!K4:K34,"미진행")</f>
         <v>19</v>
       </c>
-      <c r="F4" s="416">
+      <c r="F4" s="316">
         <f>C4/B4</f>
         <v>0</v>
       </c>
-      <c r="G4" s="416">
+      <c r="G4" s="316">
         <f>D4/B4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="416">
+      <c r="H4" s="316">
         <f>E4/B4</f>
         <v>1</v>
       </c>
@@ -5842,24 +5293,24 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="90"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="91"/>
-      <c r="D9" s="91"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
+      <c r="A9" s="89"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="91"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="91"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="90"/>
-      <c r="B10" s="91"/>
-      <c r="C10" s="91"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="91"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="92"/>
-      <c r="H10" s="92"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
+      <c r="H10" s="91"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="44"/>
@@ -5949,6 +5400,5 @@
     <oddHeader>&amp;L프로젝트 관리 캡스톤 디자인&amp;R프로그램기능목록</oddHeader>
     <oddFooter>&amp;L프로그램 기능 개발 진척도&amp;R&amp;G</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId1"/>
 </worksheet>
 </file>
--- a/프로그램기능목록_V1.0.xlsx
+++ b/프로그램기능목록_V1.0.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t xml:space="preserve">                                                                  </t>
   </si>
@@ -412,6 +412,153 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>미완료</t>
+  </si>
+  <si>
+    <t>S-1-1</t>
+  </si>
+  <si>
+    <t>S-1-2</t>
+  </si>
+  <si>
+    <t>S-2-1</t>
+  </si>
+  <si>
+    <t>S-3-1</t>
+  </si>
+  <si>
+    <t>S-4-1</t>
+  </si>
+  <si>
+    <t>S-4-2</t>
+  </si>
+  <si>
+    <t>S-4-3</t>
+  </si>
+  <si>
+    <t>S-4-4</t>
+  </si>
+  <si>
+    <t>S-5-1</t>
+  </si>
+  <si>
+    <t>S-5-2</t>
+  </si>
+  <si>
+    <t>S-6-1</t>
+  </si>
+  <si>
+    <t>S-6-2</t>
+  </si>
+  <si>
+    <t>S-6-3</t>
+  </si>
+  <si>
+    <t>S-6-4</t>
+  </si>
+  <si>
+    <t>G-1-1</t>
+  </si>
+  <si>
+    <t>G-3-2</t>
+  </si>
+  <si>
+    <t>G-3-1</t>
+  </si>
+  <si>
+    <t>G-2-2</t>
+  </si>
+  <si>
+    <t>G-2-1</t>
+  </si>
+  <si>
+    <t>SLOGIN.cpp</t>
+  </si>
+  <si>
+    <t>SEMail.cpp</t>
+  </si>
+  <si>
+    <t>LogintoS</t>
+  </si>
+  <si>
+    <t>LogintoE</t>
+  </si>
+  <si>
+    <t>SignUpToE</t>
+  </si>
+  <si>
+    <t>ToDveloper</t>
+  </si>
+  <si>
+    <t>ToDeveloper</t>
+  </si>
+  <si>
+    <t>Corona</t>
+  </si>
+  <si>
+    <t>Wether</t>
+  </si>
+  <si>
+    <t>Fiance</t>
+  </si>
+  <si>
+    <t>DashBoardAdd</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>DashBoardShow</t>
+  </si>
+  <si>
+    <t>LifescoreShow</t>
+  </si>
+  <si>
+    <t>LogintoM</t>
+  </si>
+  <si>
+    <t>사용자 닉네dla 변경</t>
+  </si>
+  <si>
+    <t>사용자 닉네임 변경</t>
+  </si>
+  <si>
+    <t>RenameArea</t>
+  </si>
+  <si>
+    <t>RenameName</t>
+  </si>
+  <si>
+    <t>RenamePass</t>
+  </si>
+  <si>
+    <t>DropUser</t>
+  </si>
+  <si>
+    <t>ShowUser_</t>
+  </si>
+  <si>
+    <t>일일/누적 회원 수 ,탈퇴 수 조회</t>
+  </si>
+  <si>
+    <t>누적 회원 수 ,탈퇴 수 조회</t>
+  </si>
+  <si>
+    <t>ShowUser_1</t>
+  </si>
+  <si>
+    <t>ShowUser_2</t>
+  </si>
+  <si>
+    <t>ManageQ</t>
+  </si>
+  <si>
+    <t>ManageAnswer</t>
+  </si>
+  <si>
+    <t>ManageDelete</t>
   </si>
 </sst>
 </file>
@@ -965,7 +1112,7 @@
       <color rgb="FF000000"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1167,8 +1314,26 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599990"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799980"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="28">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1501,6 +1666,38 @@
       <top/>
       <bottom/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1681,7 +1878,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="319">
+  <cellXfs count="370">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2602,6 +2799,159 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="79" fillId="34" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="35" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="80" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="27" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="28" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="80" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="50" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="81" fillId="35" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="59">
@@ -3497,10 +3847,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.000000" customHeight="1"/>
@@ -3509,7 +3859,7 @@
     <col min="2" max="2" style="37" width="17.11611197" customWidth="1" outlineLevel="0"/>
     <col min="3" max="3" style="38" width="17.89388869" customWidth="1" outlineLevel="0"/>
     <col min="4" max="4" style="38" width="16.44944403" customWidth="1" outlineLevel="0"/>
-    <col min="5" max="5" style="39" width="18.22722265" customWidth="1" outlineLevel="0"/>
+    <col min="5" max="5" style="39" width="20.33833334" customWidth="1" outlineLevel="0"/>
     <col min="6" max="7" style="40" width="11.78277800" customWidth="1" outlineLevel="0"/>
     <col min="8" max="8" style="40" width="15.56055567" customWidth="1" outlineLevel="0"/>
     <col min="9" max="9" style="40" width="11.11611101" customWidth="1" outlineLevel="0"/>
@@ -4276,20 +4626,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="29" customFormat="1" ht="21.750000" customHeight="1">
-      <c r="A1" s="293" t="s">
+      <c r="A1" s="360" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="269"/>
-      <c r="C1" s="294"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="296"/>
-      <c r="F1" s="297"/>
-      <c r="G1" s="297"/>
-      <c r="H1" s="297"/>
-      <c r="I1" s="297"/>
-      <c r="J1" s="297"/>
-      <c r="K1" s="297"/>
-      <c r="L1" s="270"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="362"/>
+      <c r="D1" s="363"/>
+      <c r="E1" s="362"/>
+      <c r="F1" s="362"/>
+      <c r="G1" s="362"/>
+      <c r="H1" s="362"/>
+      <c r="I1" s="362"/>
+      <c r="J1" s="362"/>
+      <c r="K1" s="362"/>
+      <c r="L1" s="364"/>
     </row>
     <row r="2" spans="1:13" s="29" customFormat="1" ht="13.500000">
       <c r="A2" s="294"/>
@@ -4346,10 +4696,10 @@
       </c>
     </row>
     <row r="4" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A4" s="302" t="s">
+      <c r="A4" s="327" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="302"/>
+      <c r="B4" s="328"/>
       <c r="C4" s="302"/>
       <c r="D4" s="303"/>
       <c r="E4" s="302"/>
@@ -4362,14 +4712,16 @@
       <c r="L4" s="300"/>
     </row>
     <row r="5" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A5" s="317"/>
-      <c r="B5" s="258" t="s">
+      <c r="A5" s="329"/>
+      <c r="B5" s="330" t="s">
         <v>35</v>
       </c>
       <c r="C5" s="259" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="260"/>
+      <c r="D5" s="260" t="s">
+        <v>128</v>
+      </c>
       <c r="E5" s="260" t="s">
         <v>105</v>
       </c>
@@ -4379,9 +4731,15 @@
       <c r="G5" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H5" s="260"/>
-      <c r="I5" s="262"/>
-      <c r="J5" s="262"/>
+      <c r="H5" s="260" t="s">
+        <v>149</v>
+      </c>
+      <c r="I5" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J5" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K5" s="263" t="s">
         <v>64</v>
       </c>
@@ -4390,12 +4748,14 @@
       </c>
     </row>
     <row r="6" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A6" s="318"/>
-      <c r="B6" s="265"/>
+      <c r="A6" s="329"/>
+      <c r="B6" s="330"/>
       <c r="C6" s="259" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="260"/>
+      <c r="D6" s="260" t="s">
+        <v>129</v>
+      </c>
       <c r="E6" s="260" t="s">
         <v>106</v>
       </c>
@@ -4405,9 +4765,15 @@
       <c r="G6" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="260"/>
-      <c r="I6" s="263"/>
-      <c r="J6" s="263"/>
+      <c r="H6" s="260" t="s">
+        <v>150</v>
+      </c>
+      <c r="I6" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J6" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K6" s="263" t="s">
         <v>64</v>
       </c>
@@ -4416,14 +4782,16 @@
       </c>
     </row>
     <row r="7" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="A7" s="318"/>
-      <c r="B7" s="265" t="s">
+      <c r="A7" s="329"/>
+      <c r="B7" s="330" t="s">
         <v>71</v>
       </c>
       <c r="C7" s="259" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="260"/>
+      <c r="D7" s="260" t="s">
+        <v>130</v>
+      </c>
       <c r="E7" s="260" t="s">
         <v>107</v>
       </c>
@@ -4433,9 +4801,15 @@
       <c r="G7" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="260"/>
-      <c r="I7" s="263"/>
-      <c r="J7" s="263"/>
+      <c r="H7" s="260" t="s">
+        <v>151</v>
+      </c>
+      <c r="I7" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J7" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K7" s="263" t="s">
         <v>64</v>
       </c>
@@ -4444,13 +4818,16 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="B8" s="258" t="s">
+      <c r="A8" s="329"/>
+      <c r="B8" s="330" t="s">
         <v>73</v>
       </c>
       <c r="C8" s="266" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="260"/>
+      <c r="D8" s="260" t="s">
+        <v>131</v>
+      </c>
       <c r="E8" s="260" t="s">
         <v>109</v>
       </c>
@@ -4460,9 +4837,15 @@
       <c r="G8" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="260"/>
-      <c r="I8" s="262"/>
-      <c r="J8" s="262"/>
+      <c r="H8" s="260" t="s">
+        <v>153</v>
+      </c>
+      <c r="I8" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J8" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K8" s="263" t="s">
         <v>64</v>
       </c>
@@ -4471,13 +4854,16 @@
       </c>
     </row>
     <row r="9" spans="1:13" s="29" customFormat="1" ht="20.100000" customHeight="1">
-      <c r="B9" s="265" t="s">
+      <c r="A9" s="329"/>
+      <c r="B9" s="330" t="s">
         <v>75</v>
       </c>
       <c r="C9" s="266" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="260"/>
+      <c r="D9" s="260" t="s">
+        <v>132</v>
+      </c>
       <c r="E9" s="259" t="s">
         <v>96</v>
       </c>
@@ -4487,9 +4873,15 @@
       <c r="G9" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="260"/>
-      <c r="I9" s="263"/>
-      <c r="J9" s="263"/>
+      <c r="H9" s="260" t="s">
+        <v>154</v>
+      </c>
+      <c r="I9" s="262">
+        <v>44515</v>
+      </c>
+      <c r="J9" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K9" s="263" t="s">
         <v>64</v>
       </c>
@@ -4498,11 +4890,14 @@
       </c>
     </row>
     <row r="10" spans="1:13" ht="19.500000" customHeight="1">
-      <c r="B10" s="305"/>
+      <c r="A10" s="331"/>
+      <c r="B10" s="328"/>
       <c r="C10" s="267" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="260"/>
+      <c r="D10" s="260" t="s">
+        <v>133</v>
+      </c>
       <c r="E10" s="259" t="s">
         <v>97</v>
       </c>
@@ -4512,9 +4907,15 @@
       <c r="G10" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H10" s="260"/>
-      <c r="I10" s="268"/>
-      <c r="J10" s="268"/>
+      <c r="H10" s="260" t="s">
+        <v>155</v>
+      </c>
+      <c r="I10" s="262">
+        <v>44515</v>
+      </c>
+      <c r="J10" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K10" s="263" t="s">
         <v>64</v>
       </c>
@@ -4523,11 +4924,14 @@
       </c>
     </row>
     <row r="11" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="B11" s="265"/>
+      <c r="A11" s="331"/>
+      <c r="B11" s="330"/>
       <c r="C11" s="260" t="s">
         <v>78</v>
       </c>
-      <c r="D11" s="260"/>
+      <c r="D11" s="260" t="s">
+        <v>134</v>
+      </c>
       <c r="E11" s="259" t="s">
         <v>98</v>
       </c>
@@ -4537,9 +4941,15 @@
       <c r="G11" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="260"/>
-      <c r="I11" s="268"/>
-      <c r="J11" s="268"/>
+      <c r="H11" s="260" t="s">
+        <v>156</v>
+      </c>
+      <c r="I11" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J11" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K11" s="263" t="s">
         <v>64</v>
       </c>
@@ -4548,11 +4958,14 @@
       </c>
     </row>
     <row r="12" spans="1:13" ht="20.100000" customHeight="1">
-      <c r="B12" s="306"/>
+      <c r="A12" s="331"/>
+      <c r="B12" s="332"/>
       <c r="C12" s="260" t="s">
-        <v>101</v>
-      </c>
-      <c r="D12" s="284"/>
+        <v>102</v>
+      </c>
+      <c r="D12" s="260" t="s">
+        <v>135</v>
+      </c>
       <c r="E12" s="259" t="s">
         <v>102</v>
       </c>
@@ -4562,9 +4975,15 @@
       <c r="G12" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H12" s="284"/>
-      <c r="I12" s="286"/>
-      <c r="J12" s="286"/>
+      <c r="H12" s="284" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J12" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K12" s="263" t="s">
         <v>64</v>
       </c>
@@ -4574,13 +4993,16 @@
       <c r="M12" s="288"/>
     </row>
     <row r="13" spans="1:13" s="29" customFormat="1" ht="16.500000" customHeight="1">
-      <c r="B13" s="258" t="s">
+      <c r="A13" s="329"/>
+      <c r="B13" s="330" t="s">
         <v>82</v>
       </c>
       <c r="C13" s="260" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="270"/>
+      <c r="D13" s="260" t="s">
+        <v>136</v>
+      </c>
       <c r="E13" s="259" t="s">
         <v>103</v>
       </c>
@@ -4590,9 +5012,15 @@
       <c r="G13" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="270"/>
-      <c r="I13" s="270"/>
-      <c r="J13" s="270"/>
+      <c r="H13" s="284" t="s">
+        <v>159</v>
+      </c>
+      <c r="I13" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J13" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K13" s="263" t="s">
         <v>64</v>
       </c>
@@ -4601,11 +5029,14 @@
       </c>
     </row>
     <row r="14" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B14" s="258"/>
+      <c r="A14" s="331"/>
+      <c r="B14" s="330"/>
       <c r="C14" s="260" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="272"/>
+      <c r="D14" s="260" t="s">
+        <v>137</v>
+      </c>
       <c r="E14" s="259" t="s">
         <v>104</v>
       </c>
@@ -4615,9 +5046,15 @@
       <c r="G14" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H14" s="274"/>
-      <c r="I14" s="274"/>
-      <c r="J14" s="274"/>
+      <c r="H14" s="284" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J14" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K14" s="263" t="s">
         <v>64</v>
       </c>
@@ -4626,13 +5063,16 @@
       </c>
     </row>
     <row r="15" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B15" s="258" t="s">
+      <c r="A15" s="331"/>
+      <c r="B15" s="330" t="s">
         <v>80</v>
       </c>
       <c r="C15" s="260" t="s">
         <v>85</v>
       </c>
-      <c r="D15" s="272"/>
+      <c r="D15" s="260" t="s">
+        <v>138</v>
+      </c>
       <c r="E15" s="259" t="s">
         <v>110</v>
       </c>
@@ -4642,9 +5082,15 @@
       <c r="G15" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H15" s="274"/>
-      <c r="I15" s="274"/>
-      <c r="J15" s="274"/>
+      <c r="H15" s="284" t="s">
+        <v>164</v>
+      </c>
+      <c r="I15" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J15" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K15" s="263" t="s">
         <v>64</v>
       </c>
@@ -4653,13 +5099,16 @@
       </c>
     </row>
     <row r="16" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B16" s="258"/>
+      <c r="A16" s="331"/>
+      <c r="B16" s="330"/>
       <c r="C16" s="260" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="272"/>
+      <c r="D16" s="260" t="s">
+        <v>139</v>
+      </c>
       <c r="E16" s="259" t="s">
-        <v>111</v>
+        <v>163</v>
       </c>
       <c r="F16" s="261" t="s">
         <v>61</v>
@@ -4667,9 +5116,15 @@
       <c r="G16" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H16" s="274"/>
-      <c r="I16" s="274"/>
-      <c r="J16" s="274"/>
+      <c r="H16" s="284" t="s">
+        <v>165</v>
+      </c>
+      <c r="I16" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J16" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K16" s="263" t="s">
         <v>64</v>
       </c>
@@ -4678,11 +5133,14 @@
       </c>
     </row>
     <row r="17" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B17" s="258"/>
+      <c r="A17" s="331"/>
+      <c r="B17" s="330"/>
       <c r="C17" s="260" t="s">
         <v>86</v>
       </c>
-      <c r="D17" s="272"/>
+      <c r="D17" s="260" t="s">
+        <v>140</v>
+      </c>
       <c r="E17" s="259" t="s">
         <v>113</v>
       </c>
@@ -4692,9 +5150,15 @@
       <c r="G17" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H17" s="274"/>
-      <c r="I17" s="274"/>
-      <c r="J17" s="274"/>
+      <c r="H17" s="284" t="s">
+        <v>166</v>
+      </c>
+      <c r="I17" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J17" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K17" s="263" t="s">
         <v>64</v>
       </c>
@@ -4703,11 +5167,14 @@
       </c>
     </row>
     <row r="18" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B18" s="258"/>
+      <c r="A18" s="333"/>
+      <c r="B18" s="330"/>
       <c r="C18" s="260" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="272"/>
+      <c r="D18" s="260" t="s">
+        <v>141</v>
+      </c>
       <c r="E18" s="259" t="s">
         <v>114</v>
       </c>
@@ -4717,9 +5184,15 @@
       <c r="G18" s="261" t="s">
         <v>62</v>
       </c>
-      <c r="H18" s="274"/>
-      <c r="I18" s="274"/>
-      <c r="J18" s="274"/>
+      <c r="H18" s="284" t="s">
+        <v>167</v>
+      </c>
+      <c r="I18" s="365">
+        <v>44522</v>
+      </c>
+      <c r="J18" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K18" s="263" t="s">
         <v>64</v>
       </c>
@@ -4728,10 +5201,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="A19" s="302" t="s">
+      <c r="A19" s="334" t="s">
         <v>40</v>
       </c>
-      <c r="B19" s="302"/>
+      <c r="B19" s="335"/>
       <c r="C19" s="302"/>
       <c r="D19" s="303"/>
       <c r="E19" s="304"/>
@@ -4739,20 +5212,21 @@
       <c r="G19" s="302"/>
       <c r="H19" s="303"/>
       <c r="I19" s="302"/>
-      <c r="J19" s="302"/>
+      <c r="J19" s="300"/>
       <c r="K19" s="304"/>
       <c r="L19" s="300"/>
       <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B20" s="259" t="s">
+      <c r="A20" s="336"/>
+      <c r="B20" s="338" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="259" t="s">
         <v>35</v>
       </c>
       <c r="D20" s="260" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="E20" s="260" t="s">
         <v>45</v>
@@ -4764,10 +5238,14 @@
         <v>40</v>
       </c>
       <c r="H20" s="260" t="s">
-        <v>39</v>
-      </c>
-      <c r="I20" s="262"/>
-      <c r="J20" s="262"/>
+        <v>161</v>
+      </c>
+      <c r="I20" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J20" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K20" s="263" t="s">
         <v>64</v>
       </c>
@@ -4776,13 +5254,16 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B21" s="265" t="s">
+      <c r="A21" s="336"/>
+      <c r="B21" s="338" t="s">
         <v>73</v>
       </c>
       <c r="C21" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="D21" s="260"/>
+      <c r="D21" s="260" t="s">
+        <v>146</v>
+      </c>
       <c r="E21" s="260" t="s">
         <v>123</v>
       </c>
@@ -4792,9 +5273,15 @@
       <c r="G21" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H21" s="260"/>
-      <c r="I21" s="263"/>
-      <c r="J21" s="263"/>
+      <c r="H21" s="260" t="s">
+        <v>174</v>
+      </c>
+      <c r="I21" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J21" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K21" s="263" t="s">
         <v>64</v>
       </c>
@@ -4803,11 +5290,14 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B22" s="265"/>
+      <c r="A22" s="336"/>
+      <c r="B22" s="338"/>
       <c r="C22" s="259" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="260"/>
+      <c r="D22" s="260" t="s">
+        <v>145</v>
+      </c>
       <c r="E22" s="260" t="s">
         <v>117</v>
       </c>
@@ -4817,9 +5307,15 @@
       <c r="G22" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H22" s="260"/>
-      <c r="I22" s="263"/>
-      <c r="J22" s="263"/>
+      <c r="H22" s="260" t="s">
+        <v>175</v>
+      </c>
+      <c r="I22" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J22" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K22" s="263" t="s">
         <v>64</v>
       </c>
@@ -4828,15 +5324,18 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B23" s="254" t="s">
+      <c r="A23" s="336"/>
+      <c r="B23" s="339" t="s">
         <v>93</v>
       </c>
       <c r="C23" s="260" t="s">
         <v>119</v>
       </c>
-      <c r="D23" s="260"/>
+      <c r="D23" s="260" t="s">
+        <v>144</v>
+      </c>
       <c r="E23" s="260" t="s">
-        <v>121</v>
+        <v>170</v>
       </c>
       <c r="F23" s="261" t="s">
         <v>51</v>
@@ -4844,9 +5343,15 @@
       <c r="G23" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H23" s="260"/>
-      <c r="I23" s="268"/>
-      <c r="J23" s="268"/>
+      <c r="H23" s="260" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J23" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K23" s="263" t="s">
         <v>64</v>
       </c>
@@ -4855,11 +5360,14 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="18.000000" customHeight="1">
-      <c r="B24" s="256"/>
+      <c r="A24" s="340"/>
+      <c r="B24" s="341"/>
       <c r="C24" s="260" t="s">
         <v>94</v>
       </c>
-      <c r="D24" s="260"/>
+      <c r="D24" s="260" t="s">
+        <v>143</v>
+      </c>
       <c r="E24" s="260" t="s">
         <v>120</v>
       </c>
@@ -4869,9 +5377,15 @@
       <c r="G24" s="261" t="s">
         <v>40</v>
       </c>
-      <c r="H24" s="260"/>
-      <c r="I24" s="268"/>
-      <c r="J24" s="268"/>
+      <c r="H24" s="260" t="s">
+        <v>172</v>
+      </c>
+      <c r="I24" s="262">
+        <v>44530</v>
+      </c>
+      <c r="J24" s="264" t="s">
+        <v>126</v>
+      </c>
       <c r="K24" s="263" t="s">
         <v>64</v>
       </c>
@@ -4888,7 +5402,7 @@
       <c r="F25" s="261"/>
       <c r="G25" s="263"/>
       <c r="H25" s="260"/>
-      <c r="I25" s="268"/>
+      <c r="I25" s="262"/>
       <c r="J25" s="268"/>
       <c r="K25" s="268"/>
       <c r="L25" s="269"/>
@@ -4996,12 +5510,14 @@
       <c r="E33" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A5:A7"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A4:A18"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B9:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B18"/>
+    <mergeCell ref="A19:A24"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B24"/>
   </mergeCells>
@@ -5204,7 +5720,7 @@
     <row r="4" spans="1:8">
       <c r="A4" s="314">
         <f ca="1">TODAY()</f>
-        <v>44477</v>
+        <v>44484</v>
       </c>
       <c r="B4" s="315">
         <f>C4+D4+E4</f>
